--- a/biology/Médecine/Vitarosa_Zorza/Vitarosa_Zorza.xlsx
+++ b/biology/Médecine/Vitarosa_Zorza/Vitarosa_Zorza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Rosa Zorza, en religion sœur Vitarosa, née le 9 octobre 1943 à Bergame en Italie, morte le 28 mai 1995 à Kikwit en République démocratique du Congo, est une religieuse et infirmière italienne. 
 « Martyre de la charité » en contractant la maladie Ebola auprès de ceux qu'elle soignait, elle est reconnue vénérable par le pape François en 2021.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Rosa Zorza naît le 9 octobre 1943 à Bergame en Italie[1],[2]. Elle est la fille d'un ouvrier agricole, et déménage souvent avec sa famille dans les lieux successifs où il est amené à travailler[1].
-Ayant ressenti la vocation religieuse, Maria Rosa Zorza entre à 23 ans chez les sœurs des pauvres à Bergame. Devenue sœur Vitarosa Zorza, elle part pour l'Afrique en 1981, et se consacre aux enfants, aux malades, aux détenus[1].
-Lorsqu'en 1995 les religieuses de Kikwit sont confrontées à une maladie grave inconnue, elle obtient l'autorisation de la supérieure provinciale de les rejoindre pour les aider. Elle s'y rend le 2 mai pour aider à la lutte contre la maladie qui se révèle être la maladie à virus Ebola[1]. Les sœurs qu'elle rejoint sont victimes de l'épidémie ; elle l'attrape elle-même auprès des malades qu'elle soigne et en meurt le 28 mai 1995[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Rosa Zorza naît le 9 octobre 1943 à Bergame en Italie,. Elle est la fille d'un ouvrier agricole, et déménage souvent avec sa famille dans les lieux successifs où il est amené à travailler.
+Ayant ressenti la vocation religieuse, Maria Rosa Zorza entre à 23 ans chez les sœurs des pauvres à Bergame. Devenue sœur Vitarosa Zorza, elle part pour l'Afrique en 1981, et se consacre aux enfants, aux malades, aux détenus.
+Lorsqu'en 1995 les religieuses de Kikwit sont confrontées à une maladie grave inconnue, elle obtient l'autorisation de la supérieure provinciale de les rejoindre pour les aider. Elle s'y rend le 2 mai pour aider à la lutte contre la maladie qui se révèle être la maladie à virus Ebola. Les sœurs qu'elle rejoint sont victimes de l'épidémie ; elle l'attrape elle-même auprès des malades qu'elle soigne et en meurt le 28 mai 1995.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Procédure en béatification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La procédure pour la béatification éventuelle de Vitarosa Zorza est ouverte en 2013 au niveau du diocèse de Kikwit et reçoit la même année l'avis du Saint-Siège indiquant que rien ne s'oppose à cette enquête. Une autre enquête diocésaine est ouverte dans le diocèse de Bergame. Les enquêtes diocésaines sont closes en 2014. Le dossier est transmis à Rome auprès de la Congrégation pour les causes des saints[1]. 
-La Positio sur ses vertus est terminée le 8 juin 2018 et examinée le même mois par la commission théologique[1].
-Le pape François approuve le 17 mars 2021 la reconnaissance de l'héroïcité de ses vertus et la reconnaît ainsi vénérable[1],[2],[3]. Elle est fêtée localement le 28 mai[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La procédure pour la béatification éventuelle de Vitarosa Zorza est ouverte en 2013 au niveau du diocèse de Kikwit et reçoit la même année l'avis du Saint-Siège indiquant que rien ne s'oppose à cette enquête. Une autre enquête diocésaine est ouverte dans le diocèse de Bergame. Les enquêtes diocésaines sont closes en 2014. Le dossier est transmis à Rome auprès de la Congrégation pour les causes des saints. 
+La Positio sur ses vertus est terminée le 8 juin 2018 et examinée le même mois par la commission théologique.
+Le pape François approuve le 17 mars 2021 la reconnaissance de l'héroïcité de ses vertus et la reconnaît ainsi vénérable. Elle est fêtée localement le 28 mai.
 </t>
         </is>
       </c>
